--- a/data/trans_bre/P12C1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12C1_R-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -541,22 +541,22 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>44,17</t>
+          <t>43,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,99</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>325,42%</t>
+          <t>512,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>264,54%</t>
+          <t>11,4%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,58; 55,01</t>
+          <t>24,93; 59,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,57; 44,71</t>
+          <t>-30,04; 33,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>151,51; 716,99</t>
+          <t>135,4; 2164,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>87,48; 641,95</t>
+          <t>-45,41; 85,23</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>38,57</t>
+          <t>51,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44,71</t>
+          <t>28,64</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>307,47%</t>
+          <t>635,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>526,11%</t>
+          <t>62,27%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,16; 45,56</t>
+          <t>41,73; 59,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,6; 51,54</t>
+          <t>16,87; 40,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>189,06; 480,22</t>
+          <t>348,12; 1216,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>321,49; 852,49</t>
+          <t>32,45; 109,26</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,01</t>
+          <t>24,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,86</t>
+          <t>12,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>232,44%</t>
+          <t>135,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>158,83%</t>
+          <t>19,3%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,31; 39,74</t>
+          <t>13,71; 36,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,17; 34,14</t>
+          <t>1,69; 25,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>110,28; 425,48</t>
+          <t>50,84; 311,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>78,02; 284,85</t>
+          <t>2,51; 45,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>283,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>317,57%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,24; 42,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,69; 41,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>205,42; 388,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>224,18; 452,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>40,2</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19,32</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>343,19%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>35,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>34,05; 45,85</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9,73; 28,27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>220,95; 530,78</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15,43; 56,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P12C1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12C1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>43,38</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,68</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>512,04%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>11,4%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>40.28682767708439</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.059865792621387</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>4.454129514754653</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.06715544813673975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>24,93; 59,53</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-30,04; 33,65</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>135,4; 2164,93</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-45,41; 85,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>21.64116022816319</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-31.27909041593265</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>1.154600275704496</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.4673937079156563</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>57.17120964837722</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>30.13559631183285</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>18.93008944378408</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.7297528781100517</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>51,6</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>28,64</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>635,12%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>62,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>41,73; 59,59</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>16,87; 40,52</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>348,12; 1216,29</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>32,45; 109,26</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>50.83490895604362</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>29.53657972522657</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>5.928894377278196</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.6519181049775192</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>24,76</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12,54</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>135,56%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>19,3%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>40.81519005708562</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>17.87233463585712</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>3.236848333151136</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.3560693187505732</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>13,71; 36,13</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,69; 25,44</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>50,84; 311,69</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 45,29</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>59.18638796733126</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>41.21610622459607</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>11.11789758176016</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.12446198782073</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>23.37979008980357</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>11.82806931224829</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>1.221057769588196</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1790570682197758</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>12.28965668337937</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.332603373162464</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.4111708152766009</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.01817171250176174</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>35.03330379389722</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>24.22399044152469</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>2.890944752055733</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.4184502493569546</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>40,2</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>19,32</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>343,19%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>35,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>34,05; 45,85</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>9,73; 28,27</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>220,95; 530,78</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>15,43; 56,93</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>39.01420444589756</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>19.15993675014043</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>3.170627236826071</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.3499767203685109</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>32.5979770828426</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>9.398959793311157</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>2.037078278212584</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.1527515832907703</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>44.97978169262998</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>27.92537532774196</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>4.890052038058029</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.5631833372048463</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
